--- a/ref/Insn-ASCII conversion.xlsx
+++ b/ref/Insn-ASCII conversion.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hunter Lee\Desktop\350 Final proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\adityasrinivasan\fpga-logo\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10344"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>FWD</t>
   </si>
@@ -44,12 +44,6 @@
     <t>RDO</t>
   </si>
   <si>
-    <t>CTC</t>
-  </si>
-  <si>
-    <t>CBC</t>
-  </si>
-  <si>
     <t>CLC</t>
   </si>
   <si>
@@ -77,73 +71,73 @@
     <t>4c5254</t>
   </si>
   <si>
-    <t>768284</t>
-  </si>
-  <si>
     <t>010011000101001001010100</t>
   </si>
   <si>
     <t>010100100101001001010100</t>
   </si>
   <si>
-    <t>828284</t>
-  </si>
-  <si>
     <t>525254</t>
   </si>
   <si>
     <t>554e44</t>
   </si>
   <si>
-    <t>857868</t>
-  </si>
-  <si>
     <t>010101010100111001000100</t>
   </si>
   <si>
     <t>52444f</t>
   </si>
   <si>
-    <t>826879</t>
-  </si>
-  <si>
     <t>010100100100010001001111</t>
   </si>
   <si>
-    <t>435443</t>
-  </si>
-  <si>
-    <t>678467</t>
-  </si>
-  <si>
-    <t>010000110101010001000011</t>
-  </si>
-  <si>
-    <t>434243</t>
-  </si>
-  <si>
-    <t>010000110100001001000011</t>
-  </si>
-  <si>
-    <t>676667</t>
-  </si>
-  <si>
     <t>434c43</t>
   </si>
   <si>
-    <t>677667</t>
-  </si>
-  <si>
     <t>010000110100110001000011</t>
   </si>
   <si>
     <t>525054</t>
   </si>
   <si>
-    <t>828084</t>
-  </si>
-  <si>
     <t>010100100101000001010100</t>
+  </si>
+  <si>
+    <t>4609860</t>
+  </si>
+  <si>
+    <t>4344644</t>
+  </si>
+  <si>
+    <t>5001812</t>
+  </si>
+  <si>
+    <t>5395028</t>
+  </si>
+  <si>
+    <t>5590596</t>
+  </si>
+  <si>
+    <t>5391439</t>
+  </si>
+  <si>
+    <t>CTI</t>
+  </si>
+  <si>
+    <t>435449</t>
+  </si>
+  <si>
+    <t>010000110101010001001001</t>
+  </si>
+  <si>
+    <t>4412489</t>
+  </si>
+  <si>
+    <t>4410435</t>
+  </si>
+  <si>
+    <t>5394516</t>
   </si>
 </sst>
 </file>
@@ -275,23 +269,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -327,23 +304,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,165 +459,156 @@
   <dimension ref="B4:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>465744</v>
       </c>
-      <c r="D5" s="1">
-        <v>708768</v>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1">
-        <v>667568</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ref/Insn-ASCII conversion.xlsx
+++ b/ref/Insn-ASCII conversion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>FWD</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>5394516</t>
+  </si>
+  <si>
+    <t>mul arg</t>
+  </si>
+  <si>
+    <t>remainder</t>
   </si>
 </sst>
 </file>
@@ -456,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E14"/>
+  <dimension ref="B4:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,9 +473,10 @@
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>8</v>
       </c>
@@ -479,8 +486,14 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -493,8 +506,24 @@
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f>SQRT(D5)</f>
+        <v>2147.0584528605641</v>
+      </c>
+      <c r="G5">
+        <f>ROUND(F5, 0)</f>
+        <v>2147</v>
+      </c>
+      <c r="H5">
+        <f>G5*G5</f>
+        <v>4609609</v>
+      </c>
+      <c r="I5" s="1">
+        <f>D5-H5</f>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -507,8 +536,24 @@
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" ref="F6:F11" si="0">SQRT(D6)</f>
+        <v>2084.3809632598354</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G11" si="1">ROUND(F6, 0)</f>
+        <v>2084</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H11" si="2">G6*G6</f>
+        <v>4343056</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ref="I6:I11" si="3">D6-H6</f>
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -521,8 +566,24 @@
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>2236.4731163150609</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>2236</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>4999696</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="3"/>
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -535,8 +596,24 @@
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2322.719957291451</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>2323</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>5396329</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="3"/>
+        <v>-1301</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -549,8 +626,24 @@
       <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>2364.4441207184404</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>2364</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>5588496</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="3"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -563,8 +656,24 @@
       <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>2321.9472431560544</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>2322</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>5391684</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="3"/>
+        <v>-245</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -577,13 +686,29 @@
       <c r="E11" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>2100.5925354527944</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>2101</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>4414201</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="3"/>
+        <v>-1712</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>6</v>
       </c>
@@ -597,7 +722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>7</v>
       </c>

--- a/ref/Insn-ASCII conversion.xlsx
+++ b/ref/Insn-ASCII conversion.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\adityasrinivasan\fpga-logo\ref\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adityasrinivasan/Documents/GitHub/fpga-logo/ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>FWD</t>
   </si>
@@ -38,12 +44,6 @@
     <t>RRT</t>
   </si>
   <si>
-    <t>UND</t>
-  </si>
-  <si>
-    <t>RDO</t>
-  </si>
-  <si>
     <t>CLC</t>
   </si>
   <si>
@@ -86,12 +86,6 @@
     <t>010101010100111001000100</t>
   </si>
   <si>
-    <t>52444f</t>
-  </si>
-  <si>
-    <t>010100100100010001001111</t>
-  </si>
-  <si>
     <t>434c43</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>5590596</t>
   </si>
   <si>
-    <t>5391439</t>
-  </si>
-  <si>
     <t>CTI</t>
   </si>
   <si>
@@ -144,12 +135,45 @@
   </si>
   <si>
     <t>remainder</t>
+  </si>
+  <si>
+    <t>524544</t>
+  </si>
+  <si>
+    <t>5391684</t>
+  </si>
+  <si>
+    <t>010100100100010101000100</t>
+  </si>
+  <si>
+    <t>PNUP</t>
+  </si>
+  <si>
+    <t>PNDN</t>
+  </si>
+  <si>
+    <t>50 4e 55</t>
+  </si>
+  <si>
+    <t>01010000 01001110 01010101</t>
+  </si>
+  <si>
+    <t>50 4e 44</t>
+  </si>
+  <si>
+    <t>01010000 01001110 01000100</t>
+  </si>
+  <si>
+    <t>UNDO</t>
+  </si>
+  <si>
+    <t>REDO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,38 +486,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:I14"/>
+  <dimension ref="B4:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -501,10 +525,10 @@
         <v>465744</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <f>SQRT(D5)</f>
@@ -523,18 +547,18 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F11" si="0">SQRT(D6)</f>
@@ -553,18 +577,18 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -583,18 +607,18 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -613,18 +637,18 @@
         <v>-1301</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -643,22 +667,22 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>2321.9472431560544</v>
+        <v>2322</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
@@ -670,21 +694,21 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="3"/>
-        <v>-245</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -703,37 +727,145 @@
         <v>-1712</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f>SQRT(D12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>ROUND(F12, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>G12*G12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>D12-H12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F14" si="4">SQRT(D13)</f>
+        <v>2100.1035688746401</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G14" si="5">ROUND(F13, 0)</f>
+        <v>2100</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H14" si="6">G13*G13</f>
+        <v>4410000</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" ref="I13:I14" si="7">D13-H13</f>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>2322.6097390650889</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>2323</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>5396329</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="7"/>
+        <v>-1813</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>5262933</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15" si="8">SQRT(D15)</f>
+        <v>2294.1083235104657</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15" si="9">ROUND(F15, 0)</f>
+        <v>2294</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15" si="10">G15*G15</f>
+        <v>5262436</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" ref="I15" si="11">D15-H15</f>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>5262916</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16" si="12">SQRT(D16)</f>
+        <v>2294.1046183642106</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16" si="13">ROUND(F16, 0)</f>
+        <v>2294</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16" si="14">G16*G16</f>
+        <v>5262436</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" ref="I16" si="15">D16-H16</f>
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/ref/Insn-ASCII conversion.xlsx
+++ b/ref/Insn-ASCII conversion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>FWD</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>remainder</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>copied</t>
   </si>
 </sst>
 </file>
@@ -462,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:I14"/>
+  <dimension ref="B4:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +485,7 @@
     <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>8</v>
       </c>
@@ -492,8 +501,17 @@
       <c r="I4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -522,8 +540,19 @@
         <f>D5-H5</f>
         <v>251</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>4609860</v>
+      </c>
+      <c r="K5" s="1">
+        <f>G5*G5+I5</f>
+        <v>4609860</v>
+      </c>
+      <c r="L5">
+        <f>IF(K5=J5,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -537,7 +566,7 @@
         <v>13</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F11" si="0">SQRT(D6)</f>
+        <f t="shared" ref="F6:F14" si="0">SQRT(D6)</f>
         <v>2084.3809632598354</v>
       </c>
       <c r="G6">
@@ -552,8 +581,19 @@
         <f t="shared" ref="I6:I11" si="3">D6-H6</f>
         <v>1588</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>4344644</v>
+      </c>
+      <c r="K6" s="1">
+        <f>G6*G6+I6</f>
+        <v>4344644</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L11" si="4">IF(K6=J6,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -582,8 +622,19 @@
         <f t="shared" si="3"/>
         <v>2116</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>5001812</v>
+      </c>
+      <c r="K7" s="1">
+        <f>G7*G7+I7</f>
+        <v>5001812</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -612,8 +663,19 @@
         <f t="shared" si="3"/>
         <v>-1301</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>5395028</v>
+      </c>
+      <c r="K8" s="1">
+        <f>G8*G8+I8</f>
+        <v>5395028</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -642,8 +704,19 @@
         <f t="shared" si="3"/>
         <v>2100</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>5590596</v>
+      </c>
+      <c r="K9" s="1">
+        <f>G9*G9+I9</f>
+        <v>5590596</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -672,8 +745,19 @@
         <f t="shared" si="3"/>
         <v>-245</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>5391439</v>
+      </c>
+      <c r="K10" s="1">
+        <f>G10*G10+I10</f>
+        <v>5391439</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -702,13 +786,51 @@
         <f t="shared" si="3"/>
         <v>-1712</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>4412489</v>
+      </c>
+      <c r="K11" s="1">
+        <f>G11*G11+I11</f>
+        <v>4412489</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>ROUND(F12, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>G12*G12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>D12-H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <f>G12*G12+I12</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>IF(K12=J12,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>6</v>
       </c>
@@ -721,8 +843,35 @@
       <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>2100.1035688746401</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G14" si="5">ROUND(F13, 0)</f>
+        <v>2100</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H14" si="6">G13*G13</f>
+        <v>4410000</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" ref="I13:I14" si="7">D13-H13</f>
+        <v>435</v>
+      </c>
+      <c r="J13">
+        <v>4410435</v>
+      </c>
+      <c r="K13" s="1">
+        <f>G13*G13+I13</f>
+        <v>4410435</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13:L14" si="8">IF(K13=J13,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -734,6 +883,33 @@
       </c>
       <c r="E14" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>2322.6097390650889</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>2323</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>5396329</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="7"/>
+        <v>-1813</v>
+      </c>
+      <c r="J14">
+        <v>5394516</v>
+      </c>
+      <c r="K14" s="1">
+        <f>G14*G14+I14</f>
+        <v>5394516</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
